--- a/Business Statistic/Session 5-10-2023/Binomial.xlsx
+++ b/Business Statistic/Session 5-10-2023/Binomial.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Karan Panchal MCA Sem 1\Business Statistic\Session 5-10-2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5B64012B-3974-4846-AD92-53FB21958E01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B049206-3F88-4A40-A2C3-1B1D119ECBA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{971BF7F1-B5CD-4F0C-9854-D3688D2851B1}"/>
   </bookViews>
